--- a/input/processing_checklist.xlsx
+++ b/input/processing_checklist.xlsx
@@ -59,10 +59,10 @@
     <t>HSN</t>
   </si>
   <si>
-    <t>Duty</t>
-  </si>
-  <si>
-    <t>Welfare</t>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>SWS</t>
   </si>
   <si>
     <t>IGST</t>
@@ -4883,7 +4883,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/input/processing_checklist.xlsx
+++ b/input/processing_checklist.xlsx
@@ -4881,7 +4881,7 @@
   <dimension ref="A1:U2182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>

--- a/input/processing_checklist.xlsx
+++ b/input/processing_checklist.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Job No SI/M/10911/24-25</t>
   </si>
@@ -174,15 +174,6 @@
   </si>
   <si>
     <t>RESISTOR-22R-+OR-5%-1/16W-0402-PART NO.1.2.03.01.0355 MODEL NO.IPC-DK2-3H1W</t>
-  </si>
-  <si>
-    <t>88.88.88</t>
-  </si>
-  <si>
-    <t>RESISTOR-88888-200R-+OR-5%-1/16W-0402-PART NO.1.2.03.01.0359 MODEL NO.IPC-DK2-3H1W</t>
-  </si>
-  <si>
-    <t>1.2.03.01.0360</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1382,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:Q16"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1844,12 +1835,6 @@
       <c r="F14" s="1">
         <v>18</v>
       </c>
-      <c r="O14" s="1">
-        <v>20000</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.000179</v>
-      </c>
       <c r="Q14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1861,28 +1846,16 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="0"/>
-        <v>3.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="5">
-        <v>9999999</v>
-      </c>
-      <c r="D15" s="5">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>19</v>
-      </c>
-      <c r="F15" s="5">
-        <v>29</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="O15" s="5">
         <v>39</v>
       </c>
@@ -1903,15 +1876,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="18:21">
       <c r="R16" s="1">
         <v>11</v>
       </c>
